--- a/2025-03-03_o3-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_spec/Scleroderma_spec_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with scleroderma due to vascular changes and is a key diagnostic feature.</t>
+          <t>Raynaud's phenomenon is highly associated with scleroderma, as it is a common and often early vasospastic manifestation in these patients.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hand thickness reported is absent</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Skin thickening, particularly of the hands (sclerodactyly), is a hallmark of scleroderma; its absence argues against the diagnosis.</t>
+          <t>Skin thickening, particularly on the hands, is a key diagnostic feature of scleroderma; its absence weighs against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are a classic cutaneous manifestation in scleroderma and have high specificity for the condition.</t>
+          <t>Telangiectasias are a classic cutaneous finding in scleroderma and add significant specificity to the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finger ulcers reported is absent</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Digital ulcers are frequently observed in scleroderma due to microvascular changes; their absence is counter to common scleroderma findings.</t>
+          <t>Digital ulcers commonly occur in scleroderma due to vascular compromise; their absence is evidence against advanced sclerodermatous changes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn and long-standing reflux are present</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic reflux and heartburn indicate esophageal dysmotility, which is a common internal organ involvement in scleroderma.</t>
+          <t>Chronic heartburn is indicative of esophageal dysmotility and reflux, which are common in scleroderma due to smooth muscle involvement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Multiple symmetric joints hurt is absent</t>
+          <t>Enlargement of knuckles, finger deformities, or deviation of fingers reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While joint involvement can occur in scleroderma, the absence of symmetric joint pain reduces the likelihood of a systemic connective tissue process that commonly involves arthritis.</t>
+          <t>These articular and digital changes are often seen in scleroderma and their absence argues against typical sclerodermatous involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids and solids is present</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia (both liquids and solids) further supports esophageal dysmotility that is typically seen in scleroderma patients.</t>
+          <t>Dysphagia to liquids is a hallmark of esophageal dysmotility seen in scleroderma, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Morning stiffness is absent</t>
+          <t>Multiple symmetric joints hurt is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Many rheumatologic diseases exhibit morning stiffness, and although its absence is less specific, it still detracts from a classic inflammatory systemic presentation seen in some cases of scleroderma.</t>
+          <t>While not a primary feature, joint involvement can be seen in connective tissue diseases including scleroderma; its absence here modestly argues against systemic involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with severe gastrointestinal involvement in scleroderma, supporting the diagnosis in the context of chronic reflux and dysphagia.</t>
+          <t>Weight loss may occur due to gastrointestinal dysmotility and malabsorption in scleroderma, thereby supporting the diagnosis in the context of other findings.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling reported is absent</t>
+          <t>Joint swelling reported is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint swelling can accompany connective tissue diseases including scleroderma; its absence diminishes the supporting evidence for a systemic rheumatologic process.</t>
+          <t>Joint swelling may accompany inflammatory processes in scleroderma or overlap syndromes; its absence further detracts from a full scleroderma picture.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>takes amlodipine</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine, a calcium channel blocker, is often used in managing Raynaud's phenomenon, a common clinical manifestation in scleroderma, thus its use can support a scleroderma diagnosis.</t>
+          <t>Scleroderma is much more prevalent in females, making this an epidemiologically strong supportive factor.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of alcohol use disorder does not contribute specific findings seen in scleroderma and makes less likely a toxic or alternative etiology for any fibrosis; however, its absence does not favor scleroderma.</t>
+          <t>While alcohol use disorder can impact multiple organ systems, its absence does not specifically support scleroderma and offers little weight toward the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scleroderma has a higher prevalence in females, and being female increases the clinical suspicion for the disease.</t>
+          <t>Scleroderma commonly presents in middle-aged individuals, strengthening the likelihood of the diagnosis in this demographic.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -650,73 +650,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a risk factor for many vascular diseases; its absence diminishes the probability of vascular pathology due to common causes, hence lacking support for the vasculopathy seen in scleroderma.</t>
+          <t>Nicotine dependence is a risk factor for many vascular conditions; its absence reduces the likelihood of vascular findings being explained by smoking-related effects, thus not favoring scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>middle age</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scleroderma commonly presents in middle-aged patients, bolstering the possibility of this diagnosis.</t>
+          <t>Amlodipine is a calcium channel blocker often used to treat Raynaud phenomenon, a common vascular manifestation of scleroderma, indirectly supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation-induced changes can mimic sclerodermatous skin changes; the absence of such treatment argues against a secondary scleroderma-like process, thus not supporting scleroderma.</t>
+          <t>Radiation exposure can precipitate localized scleroderma (morphea) in some cases, so its absence suggests less likelihood of radiation-induced scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>absence of previously diagnosed Hyperlipidemia</t>
+          <t>Absence of metabolic and cardiovascular risk factors such as type 2 diabetes, obesity, and hyperlipidemia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly related to scleroderma, the absence of hyperlipidemia minimizes the likelihood of vascular symptoms being attributed to common atherosclerotic processes, indirectly supporting a scleroderma-related vasculopathy.</t>
+          <t>The absence of these widespread metabolic and cardiovascular conditions can help focus diagnostic considerations toward primary autoimmune conditions like scleroderma rather than atherosclerotic or metabolic vascular disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>absence of Coronary Artery Disease</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While scleroderma is associated with microvascular changes rather than atherosclerotic disease, the absence of coronary artery disease reduces overall vascular pathology evidence, slightly favoring a non-scleroderma origin for any vascular issues.</t>
+          <t>The absence of coronary artery disease reduces the possibility that vascular abnormalities are secondary to atherosclerosis, thereby indirectly not supporting an alternative vascular etiology; however, this finding does not actively support scleroderma either.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>absence of prior myocardial infarction</t>
+          <t>Absence of significant atherosclerotic conditions such as Coronary Artery Disease and Peripheral Artery Disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The lack of a history of myocardial infarction reduces the probability that any vascular changes are due to atherosclerotic heart disease, which is an alternative explanation in vascular disorders, thereby indirectly supporting scleroderma.</t>
+          <t>Without the confounding effects of significant vascular disease from atherosclerosis, vascular findings are more likely attributable to scleroderma-related microvascular pathology.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>absence of diagnosed hypertension</t>
+          <t>diagnosed hypertension is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is sometimes seen in scleroderma due to renal involvement or vascular dysfunction; its absence removes one potential marker of such involvement, serving as evidence against classic scleroderma presentations.</t>
+          <t>Hypertension is common in many systemic conditions; its absence means there is no contributory evidence from blood pressure-related vascular stress that might complicate or mimic scleroderma vascular involvement.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Although tobacco is generally considered a risk factor for vascular disease, its presence in the history may be indirectly supportive due to the known association between vascular injury and Scleroderma's vasculopathic features.</t>
+          <t>Some studies have suggested that past exposure to tobacco may contribute to vascular injury and immune dysregulation that can be seen in scleroderma, even though the association is not strongly established. In the context of SOC data, its presence is slightly more common among patients with vascular and fibrotic diseases.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,63 +779,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Many autoimmune diseases, including Scleroderma, may cluster in families. The absence of a family history of autoimmune conditions like Rheumatoid Arthritis slightly weighs against a genetic predisposition for Scleroderma.</t>
+          <t>Autoimmune conditions often cluster in families. The absence of a family history of other autoimmune diseases, such as rheumatoid arthritis, makes a general predisposition to autoimmune disease, including scleroderma, less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction may indicate a predisposition to cardiovascular and vascular abnormalities, which are also a key component in Scleroderma pathophysiology.</t>
+          <t>Psychosocial stress has been hypothesized to trigger autoimmune phenomena in susceptible individuals. Although not a direct cause, stress may act as a precipitating factor in autoimmune conditions such as scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Recent travel is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is sometimes associated with ongoing endothelial dysfunction. Its absence may imply a lower current burden of vascular insult, which is an important component of Scleroderma pathology.</t>
+          <t>In some cases, travel can expose individuals to environmental triggers or infections that may trigger autoimmune conditions. Its absence removes one potential trigger, thereby slightly reducing the probability of an autoimmune activation like scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recent social stress has been implicated in triggering autoimmune responses in susceptible individuals, lending slight support to the possibility of Scleroderma in the right context.</t>
+          <t>A family history of vascular events such as myocardial infarction may indicate an underlying predisposition to vascular pathology. Given the vascular component of scleroderma, this finding can be seen as a modest supportive link.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent</t>
+          <t>Family history of cancer is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Although not directly related to Scleroderma, the absence of recent travel makes exposure to certain environmental triggers less likely, thereby indirectly weighing against alternative triggers of autoimmune phenomena.</t>
+          <t>There is an association in some scleroderma subsets with malignancy or paraneoplastic phenomena. The lack of family history of cancer lowers the suspicion of such associations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use</t>
+          <t>Absence of current tobacco use</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly causal, the absence of alcohol use minimizes other potential confounding causes of vascular or connective tissue injury, slightly sharpening the clinical picture favoring an autoimmune etiology such as Scleroderma.</t>
+          <t>While current tobacco use is generally linked to vascular damage, its absence now (despite prior use) means the patient might not be under ongoing exposures that could complicate the course of scleroderma. In some studies, current use is more detrimental; its absence may indirectly support an inflammatory rather than toxin-driven process like scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,19 +845,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Certain medical interventions can occasionally trigger autoimmune reactions. The absence of a recent medical procedure removes one potential trigger, weighing slightly against an inciting event for Scleroderma.</t>
+          <t>Certain medical procedures can sometimes trigger immune responses. The absence of any recent procedure reduces the possibility of procedure-related immune activation that could mimic or trigger scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior tobacco use as opposed to current tobacco use</t>
+          <t>Absence of alcohol use</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The distinction that prior tobacco use existed rather than ongoing active smoking may hint at earlier vascular insults, a scenario sometimes seen in the context of evolving vascular abnormalities typical of Scleroderma.</t>
+          <t>The absence of alcohol use eliminates alcohol-related causes of tissue damage or alternative fibrotic diseases, subtly favoring a primary autoimmune process such as scleroderma in the differential.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Scleroderma can be associated with pregnancy complications due to vascular involvement. The absence of such complications in prior pregnancy serves as a modest argument against underlying Scleroderma.</t>
+          <t>Pregnancy-related complications can be a red flag for autoimmune conditions. The absence of gestational complications slightly lowers the likelihood of an underlying autoimmune process such as scleroderma.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Telangiectasias on exam is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are one of the hallmark features seen in the limited cutaneous form of scleroderma (CREST syndrome) and possess a high specificity for the disease.</t>
+          <t>Telangiectasias are a well-recognized feature in scleroderma (especially CREST variant) and are relatively specific when present.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomennon on exam is absent.</t>
+          <t>Raynauds phenomennon on exam is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is one of the most sensitive and frequently observed early features in scleroderma; its absence strongly argues against the diagnosis.</t>
+          <t>Raynaud's phenomenon is extremely common and often one of the earliest signs in scleroderma; its absence strongly argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Weight loss on vitals is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can reflect systemic involvement and supports the possibility of an ongoing systemic fibrotic process as seen in scleroderma.</t>
+          <t>Weight loss can be seen in scleroderma as a result of gastrointestinal dysmotility and other systemic involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>Hand thickening observed is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Skin thickening of the hands is a classic manifestation of scleroderma; its absence greatly decreases the likelihood of the condition.</t>
+          <t>Skin thickening of the hands (sclerodactyly) is a cardinal feature of scleroderma; not finding this decreases the likelihood of the condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules are absent.</t>
+          <t>Obesity by vital signs is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of rheumatoid nodules helps differentiate scleroderma from rheumatoid arthritis, where nodules are more common, indirectly supporting scleroderma.</t>
+          <t>The absence of obesity is not a direct marker of scleroderma, but in the context it is supportive given scleroderma patients are more likely to experience cachexia or weight loss rather than obesity.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>Finger ulcers observed is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Finger tip ulcers, often resulting from vascular compromise in scleroderma, are a recognized feature; the absence of these lesions weighs against the diagnosis.</t>
+          <t>Finger tip ulcers are seen in patients with advanced scleroderma and their absence is significant evidence against scleroderma in a symptomatic patient.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joint swelling is absent.</t>
+          <t>High blood pressure when checked is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scleroderma typically does not present with prominent joint swelling, differentiating it from other rheumatologic conditions such as rheumatoid arthritis.</t>
+          <t>While not a typical diagnostic criterion, the absence of high blood pressure helps exclude hypertensive-related skin changes that might mimic scleroderma, indirectly supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Enlargement of knuckles, finger deformities, or deviation of fingers is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A hoarse voice can be associated with esophageal dysmotility and other orofacial manifestations of scleroderma; its absence is another piece of evidence against classic scleroderma involvement.</t>
+          <t>The absence of these musculoskeletal and skin changes, which are common in scleroderma, lower the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Enlargement of knuckles, finger deformities, or deviation of fingers is absent.</t>
+          <t>Red eye observed is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of deformities that are characteristic of other connective tissue diseases (like rheumatoid arthritis) can indirectly favor scleroderma as the specific pattern of skin thickening and digital involvement differs.</t>
+          <t>Ocular involvement such as red eye is not typical of scleroderma; its absence is in keeping with the expected clinical profile and thus does not conflict with scleroderma, indirectly supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Joint swelling observed is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is a common pulmonary complication in scleroderma, often manifesting with cough; the lack of cough makes significant pulmonary involvement less likely.</t>
+          <t>Joint swelling can be part of the inflammatory process in scleroderma; its absence further detracts from the expected clinical picture.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Although hyperlipidemia is a nonspecific finding, its presence can sometimes be seen as part of a broader systemic involvement and metabolic dysregulation, which in rare cases may be observed in scleroderma patients.</t>
+          <t>While hyperlipidemia is not a classic marker for scleroderma, its presence is a positive laboratory finding; in a case with few supportive findings, any abnormality can be considered part of the overall clinical picture, albeit weakly supportive.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A strong positive antinuclear antibody (ANA) test is highly sensitive for scleroderma; its absence is a strong indicator against the typical disease presentation.</t>
+          <t>A strong positive antinuclear antibody (ANA) test is highly sensitive for scleroderma; its absence is a robust argument against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent (possible seronegative variant)</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While a strong positive ANA is common in scleroderma, a subset of patients may be seronegative. Thus, the absence does not completely exclude scleroderma in rare seronegative cases.</t>
+          <t>In early or limited cutaneous scleroderma, interstitial lung disease (ILD) may not yet have developed; thus, a normal CT does not completely rule in the disease and leaves room for a scleroderma diagnosis based on other criteria.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interstitial lung disease (ILD) occurs frequently in scleroderma and its absence argues against the diagnosis, particularly in patients who would otherwise be expected to demonstrate pulmonary involvement.</t>
+          <t>Interstitial lung disease is a common manifestation of scleroderma; its absence on CT imaging argues against the presence of significant lung involvement seen in many scleroderma patients.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent (early disease possibility)</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aspiration may occur with advanced esophageal dysmotility in scleroderma; its absence might be seen in early or limited disease, leaving open the possibility of scleroderma.</t>
+          <t>A normal chest X-ray (CXR) with respect to the mediastinal contours may be seen in patients without advanced fibrosis, and many scleroderma patients can present before such changes develop.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aspiration resulting from esophageal dysmotility is a common complication in scleroderma; its absence suggests normal esophageal function, which decreases the likelihood of the disease.</t>
+          <t>A widened mediastinum can be seen in patients with advanced fibrotic changes related to scleroderma; its absence is strong evidence against advanced disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent (does not exclude early scleroderma)</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is common in scleroderma but typically develops later; its absence may be compatible with an early stage or limited form of the disease.</t>
+          <t>The absence of aspiration on a Modified Barium Swallow (MBS) study does not rule in scleroderma, as esophageal dysmotility is variable; its normal result is not entirely against scleroderma since some patients may have subclinical involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Although not specific for scleroderma, an abnormal widened mediastinum can sometimes be associated with complications or related structural changes; its absence adds to the evidence against disease presence in the appropriate clinical context.</t>
+          <t>Esophageal dysmotility, often leading to aspiration, is common in scleroderma; a normal MBS reduces the likelihood of typical esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent (non-contributory, maintaining diagnostic uncertainty)</t>
+          <t>Lack of other overt organ system involvement as per imaging and lab tests.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A widened mediastinum is not a typical or specific finding in scleroderma; its absence neither confirms nor excludes the diagnosis, leaving some uncertainty that might be resolved with serial evaluations.</t>
+          <t>The overall picture, with relatively benign findings aside from hyperlipidemia, may be consistent with an earlier stage or a limited form of scleroderma that has not yet manifested with more classic organ involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Overall lack of multiple supportive abnormalities</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Given that key findings typically seen in scleroderma (such as a strong positive ANA and ILD on imaging) are absent, the collective test results strongly argue against the diagnosis.</t>
+          <t>Hyperlipidemia is not a typical or specific finding in scleroderma and may point toward other metabolic or cardiovascular issues, thereby arguing against scleroderma as the primary diagnosis.</t>
         </is>
       </c>
     </row>
